--- a/NET-WC AV Lab - NIS - V1.0.xlsx
+++ b/NET-WC AV Lab - NIS - V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travis.lisk\Documents\gitHub\NET-WC-AV-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2404D760-8F6D-405C-8B3F-BDC7697F8C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FE3E54-BA56-44C9-AF39-AFBD86EE9740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT INFO" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="297">
   <si>
     <t>Item</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>5.20.99 Release 1119</t>
+  </si>
+  <si>
+    <t>7348057</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,12 +1181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,7 +1695,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1976,10 +1973,130 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1988,15 +2105,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2011,86 +2119,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2100,12 +2140,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2123,51 +2157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3426,187 +3415,187 @@
     <row r="1" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="15"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="128"/>
+      <c r="C2" s="106"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="104"/>
     </row>
     <row r="4" spans="1:7" ht="13.35" customHeight="1" thickBot="1">
       <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="131">
+      <c r="B5" s="107">
         <v>44775</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="108" t="s">
+      <c r="C5" s="108"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="109"/>
+      <c r="G5" s="140"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="C6" s="104"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="142"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="130"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="142"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="104"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
+      <c r="C9" s="104"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="C10" s="104"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1">
       <c r="A11" s="96"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="142"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="96"/>
       <c r="E12" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="135" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="148"/>
+      <c r="G12" s="136"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1">
       <c r="A13" s="96"/>
-      <c r="E13" s="149" t="s">
+      <c r="E13" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="150" t="s">
+      <c r="F13" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="151"/>
+      <c r="G13" s="134"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="E15" s="120" t="s">
+      <c r="C15" s="106"/>
+      <c r="E15" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="E16" s="105" t="s">
+      <c r="C16" s="128"/>
+      <c r="E16" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="155"/>
-      <c r="E17" s="105" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="E17" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
       <c r="A18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="E18" s="105" t="s">
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="E18" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1">
       <c r="A20" s="47"/>
@@ -3614,11 +3603,11 @@
       <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
       <c r="E21" s="123" t="s">
         <v>20</v>
       </c>
@@ -3628,9 +3617,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A22" s="117"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
       <c r="D22">
         <v>1</v>
       </c>
@@ -3639,9 +3628,9 @@
       <c r="G22" s="81"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
       <c r="D23">
         <v>2</v>
       </c>
@@ -3650,9 +3639,9 @@
       <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
       <c r="D24">
         <v>3</v>
       </c>
@@ -3661,9 +3650,9 @@
       <c r="G24" s="82"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
       <c r="D25">
         <v>4</v>
       </c>
@@ -3672,36 +3661,36 @@
       <c r="G25" s="82"/>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
       <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="119"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A29" s="117"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="119"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
@@ -3712,15 +3701,12 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="28">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="F5:G11"/>
+    <mergeCell ref="E5:E11"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C29"/>
     <mergeCell ref="E15:G15"/>
@@ -3734,12 +3720,15 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C18"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F5:G11"/>
-    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E16:G16" location="'AV DEVICES'!A1" display="AV DEVICES" xr:uid="{52D469C3-46A3-449C-9410-5081D250119B}"/>
@@ -3761,11 +3750,11 @@
   <dimension ref="A1:W254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10:C10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10:C10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10:C10"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -3796,11 +3785,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" customFormat="1" ht="18.75">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
       <c r="E1" s="62" t="s">
         <v>118</v>
       </c>
@@ -3983,8 +3972,12 @@
       <c r="T5" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
+      <c r="U5" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="V5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="71" t="s">
@@ -4005,7 +3998,9 @@
       <c r="F6" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="159"/>
+      <c r="G6" s="67" t="s">
+        <v>296</v>
+      </c>
       <c r="H6" s="67" t="s">
         <v>278</v>
       </c>
@@ -4392,7 +4387,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15">
+    <row r="12" spans="1:22">
       <c r="A12" s="71" t="s">
         <v>202</v>
       </c>
@@ -9942,11 +9937,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
       <c r="D1"/>
       <c r="E1" s="62" t="s">
         <v>118</v>
@@ -9961,10 +9956,10 @@
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="146"/>
       <c r="D2"/>
       <c r="E2" s="62" t="s">
         <v>5</v>
@@ -10108,11 +10103,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="23" t="s">
@@ -10183,10 +10178,10 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="138"/>
+      <c r="E9" s="150"/>
       <c r="G9" s="8"/>
       <c r="H9" s="11" t="s">
         <v>12</v>
@@ -10200,10 +10195,10 @@
       <c r="C10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="150"/>
       <c r="G10" s="9">
         <v>1</v>
       </c>
@@ -10219,10 +10214,10 @@
       <c r="C11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="138"/>
+      <c r="E11" s="150"/>
       <c r="G11" s="9">
         <v>2</v>
       </c>
@@ -10238,10 +10233,10 @@
       <c r="C12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="138"/>
+      <c r="E12" s="150"/>
       <c r="G12" s="9">
         <v>3</v>
       </c>
@@ -10258,10 +10253,10 @@
       <c r="C13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="138"/>
+      <c r="E13" s="150"/>
       <c r="G13" s="8">
         <v>4</v>
       </c>
@@ -10277,10 +10272,10 @@
       <c r="C14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="138"/>
+      <c r="E14" s="150"/>
       <c r="G14" s="38"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -10290,101 +10285,101 @@
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="G15" s="141" t="s">
+      <c r="E15" s="150"/>
+      <c r="G15" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="C16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="E16" s="150"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1">
       <c r="C17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="138"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="E17" s="150"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
       <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
       <c r="C18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
+      <c r="E18" s="150"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
       <c r="C19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="138"/>
+      <c r="E19" s="150"/>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
       <c r="C20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="138"/>
-      <c r="G20" s="140" t="s">
+      <c r="E20" s="150"/>
+      <c r="G20" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
       <c r="C21" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="150"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
       <c r="C22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="138"/>
+      <c r="E22" s="150"/>
       <c r="G22" s="8"/>
       <c r="H22" s="11" t="s">
         <v>12</v>
@@ -10398,10 +10393,10 @@
       <c r="C23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="138"/>
+      <c r="E23" s="150"/>
       <c r="G23" s="9">
         <v>1</v>
       </c>
@@ -10417,10 +10412,10 @@
       <c r="C24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="138"/>
+      <c r="E24" s="150"/>
       <c r="G24" s="9">
         <v>2</v>
       </c>
@@ -10474,10 +10469,10 @@
       <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="138"/>
+      <c r="E27" s="150"/>
       <c r="G27" s="9">
         <v>5</v>
       </c>
@@ -10493,10 +10488,10 @@
       <c r="C28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="138"/>
+      <c r="E28" s="150"/>
       <c r="G28" s="9">
         <v>6</v>
       </c>
@@ -10639,19 +10634,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9COLJHCbSe3vY5yXp8O5QycaOGKd5IHftybX2YUfXjcSlz38C8Lls1ZMW/QuK/qiTxiTfyHbFgCWykSmcYIEIQ==" saltValue="a3qRu+YZedN+JEuj9qEpEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="21">
-    <mergeCell ref="G20:J21"/>
-    <mergeCell ref="G15:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
@@ -10660,6 +10642,19 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="G15:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -10696,18 +10691,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="26"/>
@@ -11104,12 +11099,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11283,15 +11275,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F15DCD-28C9-4789-A510-09C5AEF83FAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37D83A79-A558-4006-A66D-9B51DA344413}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9abafb3c-89ce-4f57-8753-1cf4aa682ded"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11315,17 +11318,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37D83A79-A558-4006-A66D-9B51DA344413}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F15DCD-28C9-4789-A510-09C5AEF83FAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9abafb3c-89ce-4f57-8753-1cf4aa682ded"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>